--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
